--- a/kivancbeser/evidence.xlsx
+++ b/kivancbeser/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive'ım\Coin\Testnet\game-of-nfts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive'ım\Coin\Testnet\game-of-nfts\Coinstamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57683506-0A63-475C-9B21-B41A276AE3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B29F8-24F2-40E9-BBB6-3528A8B71057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="3510" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1755" windowWidth="20910" windowHeight="11835" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -139,17 +121,59 @@
     <t>omniflix1c3m67xnd6nvqanhndspvy9e9gax3qjwwu9mdc6</t>
   </si>
   <si>
-    <t>uptick1spje36ct6azvkrymjn3e3g0mjs7er52gdkaczt</t>
-  </si>
-  <si>
     <t>juno1c3m67xnd6nvqanhndspvy9e9gax3qjwwhff0gc</t>
+  </si>
+  <si>
+    <t>uptick1xevr2zkjq4s0r6jpr48yqhx93vrdj4t78dp6zt</t>
+  </si>
+  <si>
+    <t>1AD59F07A4230AA65F373D450A03866073AE349B3A4EDFAF094E21A4EC742608</t>
+  </si>
+  <si>
+    <t>c4854</t>
+  </si>
+  <si>
+    <t>F938F51AD27643957123EE30EB9323CEE130D25AEA875740573536FACBF81B84</t>
+  </si>
+  <si>
+    <t>3FD3EF8ADCAAEA57F546A2EB2EA2187DB496D56D99C9DA20CF5287F17E1C3F7C</t>
+  </si>
+  <si>
+    <t>nft1</t>
+  </si>
+  <si>
+    <t>nft2</t>
+  </si>
+  <si>
+    <t>juno14wt35whsle6mpn64nnn6kcvy3pp7qs8u4pshjl40pp6pxaa5e4rsdx6a6r</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>58E1BF566153010611C635EE38EB35AB51C26AF999A55EAACF734CBD6F15227E</t>
+  </si>
+  <si>
+    <t>4C87D1D861287F8C5AD095FE490D628D2CE7005F849A6987483D3BF15C3CC8D0</t>
+  </si>
+  <si>
+    <t>ibc/80FA79EC45711F2D757578A64C94296F3662062BF9A953622DA1DC2E262FA8F7</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>2A8DB5CAA8BDDB79036EDE356D0E7E53AA98A883B139515BA0D47B5820065665</t>
+  </si>
+  <si>
+    <t>E22587484638AF728152F7C1B66BD30E5AB0AFA0282CF4368D04E7C34AE5D8B2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +191,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +578,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +587,7 @@
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
@@ -565,54 +595,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1050,11 +1080,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,10 +1100,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1311,13 +1344,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1334,16 +1370,28 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1355,11 +1403,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1380,16 +1431,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1404,11 +1455,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1429,16 +1483,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1453,11 +1507,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1478,16 +1535,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1502,11 +1559,13 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1528,16 +1587,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
